--- a/ig/nr-update-annuaire-sp/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/nr-update-annuaire-sp/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-02T08:59:40+00:00</t>
+    <t>2023-08-02T09:05:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
